--- a/2017年10月第3周技术中心周简报-芶凌.xlsx
+++ b/2017年10月第3周技术中心周简报-芶凌.xlsx
@@ -549,6 +549,48 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -566,48 +608,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -972,138 +972,138 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A2" s="54"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="64"/>
+      <c r="A2" s="68"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="58"/>
       <c r="E2" s="41" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="68"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="17"/>
       <c r="I2" s="50">
-        <v>43021</v>
-      </c>
-      <c r="J2" s="71" t="s">
+        <v>43028</v>
+      </c>
+      <c r="J2" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="68"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="49" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="69"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="17"/>
       <c r="I3" s="50">
-        <v>43021</v>
-      </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="61"/>
+        <v>43028</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="65"/>
+      <c r="A4" s="68"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="69"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="17"/>
       <c r="I4" s="50">
-        <v>43021</v>
-      </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="61"/>
+        <v>43028</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="65"/>
+      <c r="A5" s="68"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="41" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="17"/>
       <c r="I5" s="50">
-        <v>43021</v>
-      </c>
-      <c r="J5" s="71"/>
-      <c r="K5" s="61"/>
+        <v>43028</v>
+      </c>
+      <c r="J5" s="65"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="65"/>
+      <c r="A6" s="68"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="51" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="17"/>
       <c r="I6" s="50">
-        <v>43021</v>
-      </c>
-      <c r="J6" s="71"/>
-      <c r="K6" s="61"/>
+        <v>43028</v>
+      </c>
+      <c r="J6" s="65"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" s="52" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="65"/>
+      <c r="A7" s="68"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="51"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="69"/>
+      <c r="G7" s="63"/>
       <c r="H7" s="53"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="61"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" s="52" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="68"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="59"/>
       <c r="E8" s="49"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="69"/>
+      <c r="G8" s="63"/>
       <c r="H8" s="53"/>
       <c r="I8" s="50"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="61"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="65"/>
+      <c r="A9" s="68"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="49"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="70"/>
+      <c r="G9" s="64"/>
       <c r="H9" s="17"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="61"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" s="48" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="42"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="60" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="43"/>
@@ -1111,24 +1111,24 @@
       <c r="G10" s="44"/>
       <c r="H10" s="45"/>
       <c r="I10" s="46"/>
-      <c r="J10" s="72"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="47"/>
     </row>
     <row r="11" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A11" s="54"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="19"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="31"/>
-      <c r="J11" s="73"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="69" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1151,7 +1151,7 @@
       <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="68"/>
       <c r="C13" s="5"/>
       <c r="D13" s="9"/>
       <c r="E13" s="21"/>
@@ -1160,7 +1160,7 @@
       <c r="K13" s="35"/>
     </row>
     <row r="14" spans="1:11" ht="24.95" customHeight="1">
-      <c r="A14" s="54"/>
+      <c r="A14" s="68"/>
       <c r="C14" s="5"/>
       <c r="D14" s="9"/>
       <c r="E14" s="23"/>
@@ -1172,7 +1172,7 @@
       <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="56"/>
+      <c r="A15" s="70"/>
       <c r="C15" s="7"/>
       <c r="D15" s="10"/>
       <c r="E15" s="26"/>
@@ -1184,7 +1184,7 @@
       <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="69" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1207,28 +1207,28 @@
       <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A17" s="54"/>
+      <c r="A17" s="68"/>
       <c r="C17" s="5"/>
       <c r="D17" s="11"/>
       <c r="E17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="62"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="56"/>
       <c r="L17" s="39"/>
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A18" s="54"/>
+      <c r="A18" s="68"/>
       <c r="C18" s="5"/>
       <c r="D18" s="9"/>
       <c r="E18" s="27"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="63"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="57"/>
       <c r="L18" s="39"/>
     </row>
     <row r="19" spans="1:12" ht="24.95" customHeight="1">
-      <c r="A19" s="54"/>
+      <c r="A19" s="68"/>
       <c r="C19" s="5"/>
       <c r="D19" s="9"/>
       <c r="E19" s="18"/>
@@ -1236,8 +1236,8 @@
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="63"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="57"/>
       <c r="L19" s="39"/>
     </row>
     <row r="20" spans="1:12" ht="42.75" customHeight="1">
@@ -1257,6 +1257,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="C10:C11"/>
     <mergeCell ref="K2:K9"/>
     <mergeCell ref="K17:K19"/>
     <mergeCell ref="D2:D9"/>
@@ -1264,11 +1269,6 @@
     <mergeCell ref="G2:G9"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="J17:J19"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
